--- a/232_画面遷移図.xlsx
+++ b/232_画面遷移図.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>システム名</t>
   </si>
@@ -345,6 +345,16 @@
       <t>キョウシツ</t>
     </rPh>
     <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>カタカナ姓、名、</t>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="9"/>
@@ -987,17 +997,80 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1049,21 +1122,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1073,9 +1131,6 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1085,62 +1140,17 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2686,8 +2696,8 @@
   </sheetPr>
   <dimension ref="A1:BP44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScale="105" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="BD36" sqref="BD36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="105" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.46484375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2699,203 +2709,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="63" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="51" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="AT1" s="54" t="s">
+      <c r="AT1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="60" t="s">
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="35"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="57"/>
     </row>
     <row r="2" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="78" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="38"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="59"/>
+      <c r="BG2" s="60"/>
     </row>
     <row r="3" spans="1:68" s="1" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="42" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="75"/>
+      <c r="AT3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="40"/>
-      <c r="BE3" s="40"/>
-      <c r="BF3" s="40"/>
-      <c r="BG3" s="41"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="79"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="63"/>
     </row>
     <row r="4" spans="1:68" ht="6.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
@@ -2947,8 +2957,8 @@
       <c r="BP4" s="5"/>
     </row>
     <row r="5" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
@@ -3008,8 +3018,8 @@
       <c r="BG5" s="13"/>
     </row>
     <row r="6" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -3066,8 +3076,8 @@
       <c r="BG6" s="8"/>
     </row>
     <row r="7" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
@@ -3120,8 +3130,8 @@
       <c r="BG7" s="8"/>
     </row>
     <row r="8" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -3172,8 +3182,8 @@
       <c r="BG8" s="8"/>
     </row>
     <row r="9" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3224,8 +3234,8 @@
       <c r="BG9" s="8"/>
     </row>
     <row r="10" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3247,7 +3257,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="26" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
@@ -3282,8 +3292,8 @@
       <c r="BG10" s="8"/>
     </row>
     <row r="11" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3339,8 +3349,8 @@
       <c r="BG11" s="8"/>
     </row>
     <row r="12" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
@@ -3397,8 +3407,8 @@
       <c r="BG12" s="8"/>
     </row>
     <row r="13" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="7"/>
       <c r="D13" s="10"/>
       <c r="E13" s="7"/>
@@ -3449,8 +3459,8 @@
       <c r="BG13" s="8"/>
     </row>
     <row r="14" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="7"/>
       <c r="D14" s="10"/>
       <c r="E14" s="7"/>
@@ -3501,8 +3511,8 @@
       <c r="BG14" s="8"/>
     </row>
     <row r="15" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -3558,8 +3568,8 @@
       <c r="BG15" s="8"/>
     </row>
     <row r="16" spans="1:68" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -3614,8 +3624,8 @@
       <c r="BG16" s="8"/>
     </row>
     <row r="17" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="9" t="s">
@@ -3670,8 +3680,8 @@
       <c r="BG17" s="8"/>
     </row>
     <row r="18" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -3732,8 +3742,8 @@
       <c r="BG18" s="8"/>
     </row>
     <row r="19" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="7"/>
       <c r="D19" s="10"/>
       <c r="E19" s="7"/>
@@ -3796,8 +3806,8 @@
       <c r="BG19" s="8"/>
     </row>
     <row r="20" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="7"/>
       <c r="D20" s="10"/>
       <c r="E20" s="7"/>
@@ -3852,8 +3862,8 @@
       <c r="BG20" s="8"/>
     </row>
     <row r="21" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -3906,8 +3916,8 @@
       <c r="BG21" s="8"/>
     </row>
     <row r="22" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -3962,8 +3972,8 @@
       <c r="BG22" s="8"/>
     </row>
     <row r="23" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -4020,8 +4030,8 @@
       <c r="BG23" s="8"/>
     </row>
     <row r="24" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -4080,8 +4090,8 @@
       <c r="BG24" s="8"/>
     </row>
     <row r="25" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="7"/>
       <c r="D25" s="10"/>
       <c r="E25" s="7"/>
@@ -4140,8 +4150,8 @@
       <c r="BG25" s="8"/>
     </row>
     <row r="26" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="7"/>
       <c r="D26" s="10"/>
       <c r="E26" s="7"/>
@@ -4202,8 +4212,8 @@
       <c r="BG26" s="8"/>
     </row>
     <row r="27" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4264,8 +4274,8 @@
       <c r="BG27" s="8"/>
     </row>
     <row r="28" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -4324,8 +4334,8 @@
       <c r="BG28" s="8"/>
     </row>
     <row r="29" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4384,8 +4394,8 @@
       <c r="BG29" s="8"/>
     </row>
     <row r="30" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9"/>
       <c r="E30" s="7"/>
@@ -4446,8 +4456,8 @@
       <c r="BG30" s="8"/>
     </row>
     <row r="31" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="7"/>
       <c r="D31" s="10"/>
       <c r="E31" s="7"/>
@@ -4508,8 +4518,8 @@
       <c r="BG31" s="8"/>
     </row>
     <row r="32" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="7"/>
       <c r="D32" s="10"/>
       <c r="E32" s="7"/>
@@ -4569,8 +4579,8 @@
       <c r="BG32" s="8"/>
     </row>
     <row r="33" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4630,8 +4640,8 @@
       <c r="BG33" s="8"/>
     </row>
     <row r="34" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -4691,8 +4701,8 @@
       <c r="BG34" s="8"/>
     </row>
     <row r="35" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="86"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4752,8 +4762,8 @@
       <c r="BG35" s="8"/>
     </row>
     <row r="36" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -4813,8 +4823,8 @@
       <c r="BG36" s="8"/>
     </row>
     <row r="37" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="7"/>
       <c r="D37" s="10"/>
       <c r="E37" s="7"/>
@@ -4874,8 +4884,8 @@
       <c r="BG37" s="8"/>
     </row>
     <row r="38" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="7"/>
       <c r="D38" s="10"/>
       <c r="E38" s="7"/>
@@ -4935,8 +4945,8 @@
       <c r="BG38" s="8"/>
     </row>
     <row r="39" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="7"/>
       <c r="D39" s="10"/>
       <c r="E39" s="7"/>
@@ -4996,8 +5006,8 @@
       <c r="BG39" s="8"/>
     </row>
     <row r="40" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -5057,8 +5067,8 @@
       <c r="BG40" s="8"/>
     </row>
     <row r="41" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5118,8 +5128,8 @@
       <c r="BG41" s="8"/>
     </row>
     <row r="42" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -5179,8 +5189,8 @@
       <c r="BG42" s="8"/>
     </row>
     <row r="43" spans="1:59" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -5302,11 +5312,45 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:T3"/>
-    <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="AY1:BB2"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="BC1:BG3"/>
     <mergeCell ref="AY3:BB3"/>
     <mergeCell ref="U2:AD3"/>
@@ -5316,45 +5360,11 @@
     <mergeCell ref="AX1:AX3"/>
     <mergeCell ref="AE1:AR1"/>
     <mergeCell ref="AE2:AR3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K2:T3"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="AY1:BB2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.70866141732283472" bottom="0.39370078740157483" header="0.82677165354330717" footer="0.19685039370078741"/>
